--- a/data/VAKFA (TRY).xlsx
+++ b/data/VAKFA (TRY).xlsx
@@ -12,6 +12,28 @@
     <sheet name="Nakit Akış (Yıllıklan.)" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +403,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="40"/>
+    <col min="1" max="1" customWidth="1" width="40" level="2" outlineLevel="2"/>
     <col min="2" max="2" customWidth="1" width="20"/>
     <col min="3" max="3" customWidth="1" width="20"/>
     <col min="4" max="4" customWidth="1" width="20"/>
@@ -394,6 +416,8 @@
     <col min="6" max="6" customWidth="1" width="20"/>
     <col min="7" max="7" customWidth="1" width="20"/>
     <col min="8" max="8" customWidth="1" width="20"/>
+    <col min="9" max="9" customWidth="1" width="20"/>
+    <col min="10" max="10" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -401,24 +425,30 @@
         <v>Kalem</v>
       </c>
       <c r="B1" t="str">
+        <v>2025/12</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2025/9</v>
+      </c>
+      <c r="D1" t="str">
         <v>2025/6</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>2024/12</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>2024/6</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>2023/12</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>2023/6</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>2022/12</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>2021/12</v>
       </c>
     </row>
@@ -432,24 +462,30 @@
         <v xml:space="preserve">    Nakit, Nakit Benzerleri ve Merkez Bankası</v>
       </c>
       <c r="B3">
+        <v>97569000</v>
+      </c>
+      <c r="C3">
+        <v>197394000</v>
+      </c>
+      <c r="D3">
         <v>384598000</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>306833000</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>745298000</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>510523000</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1794960000</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>174993000</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>95321000</v>
       </c>
     </row>
@@ -458,24 +494,30 @@
         <v xml:space="preserve">    İtfa Edilmiş Maliyet ile Ölçülen Finansal Varlıklar (Net)</v>
       </c>
       <c r="B4">
+        <v>41713384000</v>
+      </c>
+      <c r="C4">
+        <v>29833081000</v>
+      </c>
+      <c r="D4">
         <v>31839448000</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>32424129000</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>39078584000</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>37481289000</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>25025122000</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>22611298000</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>7008665000</v>
       </c>
     </row>
@@ -483,7 +525,13 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Tasarruf Finansman Alacakları</v>
       </c>
-      <c r="H5">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -492,24 +540,30 @@
         <v xml:space="preserve">    Faktoring Alacakları</v>
       </c>
       <c r="B6">
+        <v>41713384000</v>
+      </c>
+      <c r="C6">
+        <v>29833081000</v>
+      </c>
+      <c r="D6">
         <v>31839448000</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>32424129000</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>39078584000</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>37455124000</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>24983259000</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>22611298000</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>7006937000</v>
       </c>
     </row>
@@ -518,24 +572,30 @@
         <v xml:space="preserve">    Takipteki Alacaklar</v>
       </c>
       <c r="B7">
+        <v>97366000</v>
+      </c>
+      <c r="C7">
+        <v>97461000</v>
+      </c>
+      <c r="D7">
         <v>97579000</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>97810000</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>98609000</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>99074000</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>103050000</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>52363000</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>66879000</v>
       </c>
     </row>
@@ -544,24 +604,30 @@
         <v xml:space="preserve">    Beklenen Zarar Karşılıkları / Özel Karşılıklar (-)</v>
       </c>
       <c r="B8">
+        <v>-97366000</v>
+      </c>
+      <c r="C8">
+        <v>-97461000</v>
+      </c>
+      <c r="D8">
         <v>-97579000</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>-97810000</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>-98609000</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>-72909000</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>-61187000</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>-52363000</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-65151000</v>
       </c>
     </row>
@@ -572,6 +638,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -585,6 +654,12 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
@@ -593,24 +668,30 @@
         <v xml:space="preserve">    Maddi Duran Varlıklar (Net)</v>
       </c>
       <c r="B10">
+        <v>10336000</v>
+      </c>
+      <c r="C10">
+        <v>13518000</v>
+      </c>
+      <c r="D10">
         <v>15444000</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>19308000</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>18369000</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>8278000</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>3053000</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>4027000</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>2558000</v>
       </c>
     </row>
@@ -619,24 +700,30 @@
         <v xml:space="preserve">    Maddi Olmayan Duran Varlıklar (Net)</v>
       </c>
       <c r="B11">
+        <v>1091000</v>
+      </c>
+      <c r="C11">
+        <v>705000</v>
+      </c>
+      <c r="D11">
         <v>867000</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>1053000</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>847000</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>997000</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1496000</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1856000</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>2069000</v>
       </c>
     </row>
@@ -647,6 +734,9 @@
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -660,6 +750,12 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
     </row>
@@ -670,19 +766,28 @@
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>7524000</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>1487000</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1028000</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>203000</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>158000</v>
       </c>
     </row>
@@ -691,24 +796,30 @@
         <v xml:space="preserve">    Ertelenmiş Vergi Varlığı</v>
       </c>
       <c r="B14">
+        <v>29561000</v>
+      </c>
+      <c r="C14">
+        <v>21236000</v>
+      </c>
+      <c r="D14">
         <v>21275000</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>20506000</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>4160000</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>946000</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>547000</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>51219000</v>
       </c>
     </row>
@@ -717,24 +828,30 @@
         <v xml:space="preserve">    Diğer Aktifler</v>
       </c>
       <c r="B15">
+        <v>37046000</v>
+      </c>
+      <c r="C15">
+        <v>80528000</v>
+      </c>
+      <c r="D15">
         <v>59020000</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>67043000</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>125285000</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>190464000</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>411474000</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>182856000</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>11080000</v>
       </c>
     </row>
@@ -743,24 +860,30 @@
         <v xml:space="preserve">    (ARA TOPLAM) 1</v>
       </c>
       <c r="B16">
+        <v>41888987000</v>
+      </c>
+      <c r="C16">
+        <v>30146462000</v>
+      </c>
+      <c r="D16">
         <v>32377455000</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>32888590000</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>40021854000</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>38235771000</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>27263871000</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>23001424000</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>7179227000</v>
       </c>
     </row>
@@ -789,30 +912,42 @@
       <c r="H17">
         <v>220000</v>
       </c>
+      <c r="I17">
+        <v>220000</v>
+      </c>
+      <c r="J17">
+        <v>220000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v xml:space="preserve">    TOPLAM VARLIKLAR</v>
       </c>
       <c r="B18">
+        <v>41889207000</v>
+      </c>
+      <c r="C18">
+        <v>30146682000</v>
+      </c>
+      <c r="D18">
         <v>32377675000</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>32888810000</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>40022074000</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>38235991000</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>27264091000</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>23001644000</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>7179447000</v>
       </c>
     </row>
@@ -821,24 +956,30 @@
         <v xml:space="preserve">    YÜKÜMLÜLÜKLER TOPLAMI</v>
       </c>
       <c r="B19">
+        <v>34880244000</v>
+      </c>
+      <c r="C19">
+        <v>24340834000</v>
+      </c>
+      <c r="D19">
         <v>27098201000</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>28497715000</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>36470647000</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>35562528000</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>25478691000</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>21847344000</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>6588773000</v>
       </c>
     </row>
@@ -847,24 +988,30 @@
         <v xml:space="preserve">    Alınan Krediler</v>
       </c>
       <c r="B20">
+        <v>34499576000</v>
+      </c>
+      <c r="C20">
+        <v>23578599000</v>
+      </c>
+      <c r="D20">
         <v>26142311000</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>28141846000</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>36099092000</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>33000633000</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>23406668000</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>20158989000</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>5483580000</v>
       </c>
     </row>
@@ -873,24 +1020,30 @@
         <v xml:space="preserve">    Faktoring Borçları</v>
       </c>
       <c r="B21">
+        <v>11000</v>
+      </c>
+      <c r="C21">
+        <v>5965000</v>
+      </c>
+      <c r="D21">
         <v>10000</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>376000</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2142000</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>90000</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>1955000</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>5468000</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>7309000</v>
       </c>
     </row>
@@ -901,6 +1054,9 @@
       <c r="B22">
         <v>0</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
         <v>0</v>
       </c>
@@ -914,6 +1070,12 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
     </row>
@@ -922,24 +1084,30 @@
         <v xml:space="preserve">    Kiralama İşlemlerinden Borçlar</v>
       </c>
       <c r="B23">
+        <v>10282000</v>
+      </c>
+      <c r="C23">
+        <v>13442000</v>
+      </c>
+      <c r="D23">
         <v>15113000</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>17994000</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>17243000</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>6497000</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>539000</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>890000</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>2361000</v>
       </c>
     </row>
@@ -948,24 +1116,30 @@
         <v xml:space="preserve">    İhraç Edilen Menkul Kıymetler (Net)</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>402867000</v>
+      </c>
+      <c r="D24">
         <v>640415000</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>2228522000</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>1310605000</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>1513520000</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>767915000</v>
       </c>
     </row>
@@ -974,24 +1148,30 @@
         <v xml:space="preserve">    Karşılıklar</v>
       </c>
       <c r="B25">
+        <v>98350000</v>
+      </c>
+      <c r="C25">
+        <v>69966000</v>
+      </c>
+      <c r="D25">
         <v>70226000</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>68285000</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>82865000</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>73500000</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>61343000</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>46847000</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>33424000</v>
       </c>
     </row>
@@ -1000,24 +1180,30 @@
         <v xml:space="preserve">    Cari Vergi Borcu</v>
       </c>
       <c r="B26">
+        <v>253665000</v>
+      </c>
+      <c r="C26">
+        <v>257332000</v>
+      </c>
+      <c r="D26">
         <v>225673000</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>258406000</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>265917000</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>231124000</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>155346000</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>96482000</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>70271000</v>
       </c>
     </row>
@@ -1028,6 +1214,9 @@
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="D27">
         <v>0</v>
       </c>
@@ -1038,9 +1227,15 @@
         <v>0</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>137000</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>0</v>
       </c>
     </row>
@@ -1049,24 +1244,30 @@
         <v xml:space="preserve">    Diğer Yükümlülükler</v>
       </c>
       <c r="B28">
+        <v>18360000</v>
+      </c>
+      <c r="C28">
+        <v>12663000</v>
+      </c>
+      <c r="D28">
         <v>4453000</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>10808000</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>3388000</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>22162000</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>542235000</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>25011000</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>2851000</v>
       </c>
     </row>
@@ -1075,24 +1276,30 @@
         <v xml:space="preserve">    (ARA TOPLAM) 2</v>
       </c>
       <c r="B29">
+        <v>34880244000</v>
+      </c>
+      <c r="C29">
+        <v>24340834000</v>
+      </c>
+      <c r="D29">
         <v>27098201000</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>28497715000</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>36470647000</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>35562528000</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>25478691000</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>21847344000</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>6588773000</v>
       </c>
     </row>
@@ -1103,6 +1310,9 @@
       <c r="B30">
         <v>0</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30">
         <v>0</v>
       </c>
@@ -1116,6 +1326,12 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>0</v>
       </c>
     </row>
@@ -1124,24 +1340,30 @@
         <v xml:space="preserve">    ÖZKAYNAKLAR</v>
       </c>
       <c r="B31">
+        <v>7008963000</v>
+      </c>
+      <c r="C31">
+        <v>5805848000</v>
+      </c>
+      <c r="D31">
         <v>5279474000</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>4391095000</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>3551427000</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>2673463000</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>1785400000</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>1154300000</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>590674000</v>
       </c>
     </row>
@@ -1150,7 +1372,7 @@
         <v xml:space="preserve">    Ödenmiş Sermaye</v>
       </c>
       <c r="B32">
-        <v>850000000</v>
+        <v>900000000</v>
       </c>
       <c r="C32">
         <v>850000000</v>
@@ -1162,12 +1384,18 @@
         <v>850000000</v>
       </c>
       <c r="F32">
+        <v>850000000</v>
+      </c>
+      <c r="G32">
+        <v>850000000</v>
+      </c>
+      <c r="H32">
         <v>450000000</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>450000000</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>350000000</v>
       </c>
     </row>
@@ -1176,24 +1404,30 @@
         <v xml:space="preserve">    Kar veya Zararda Yeniden Sınıflandırılmayacak Birikmiş Diğer Kapsamlı Gelirler veya Giderler</v>
       </c>
       <c r="B33">
+        <v>51000</v>
+      </c>
+      <c r="C33">
+        <v>51000</v>
+      </c>
+      <c r="D33">
         <v>54466000</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>47381000</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>39450000</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>36928000</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>22501000</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>22501000</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>5595000</v>
       </c>
     </row>
@@ -1202,24 +1436,30 @@
         <v xml:space="preserve">    Kar Yedekleri</v>
       </c>
       <c r="B34">
+        <v>3496807000</v>
+      </c>
+      <c r="C34">
+        <v>3496807000</v>
+      </c>
+      <c r="D34">
         <v>3493714000</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>1786535000</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>1786535000</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>281799000</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>135079000</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>135079000</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>118793000</v>
       </c>
     </row>
@@ -1227,16 +1467,25 @@
       <c r="A35" t="str">
         <v xml:space="preserve">    Geçmiş Yıllar Kar veya Zararı</v>
       </c>
+      <c r="B35">
+        <v>44237000</v>
+      </c>
+      <c r="C35">
+        <v>44237000</v>
+      </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>546720000</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>0</v>
       </c>
     </row>
@@ -1245,24 +1494,30 @@
         <v xml:space="preserve">    Dönem Net Karı veya Zararı</v>
       </c>
       <c r="B36">
+        <v>1924858000</v>
+      </c>
+      <c r="C36">
+        <v>1414753000</v>
+      </c>
+      <c r="D36">
         <v>881294000</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>1707179000</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>875442000</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>1504736000</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>631100000</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>546720000</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>116286000</v>
       </c>
     </row>
@@ -1270,30 +1525,42 @@
       <c r="A37" t="str">
         <v xml:space="preserve">    Kontrol Gücü Olmayan Paylar</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
         <v xml:space="preserve">    TOPLAM KAYNAKLAR</v>
       </c>
       <c r="B38">
+        <v>41889207000</v>
+      </c>
+      <c r="C38">
+        <v>30146682000</v>
+      </c>
+      <c r="D38">
         <v>32377675000</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>32888810000</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>40022074000</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>38235991000</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>27264091000</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>23001644000</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>7179447000</v>
       </c>
     </row>
@@ -1304,19 +1571,19 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J39"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="40"/>
+    <col min="1" max="1" customWidth="1" width="40" level="2" outlineLevel="2"/>
     <col min="2" max="2" customWidth="1" width="20"/>
     <col min="3" max="3" customWidth="1" width="20"/>
     <col min="4" max="4" customWidth="1" width="20"/>
@@ -1329,6 +1596,9 @@
     <col min="11" max="11" customWidth="1" width="20"/>
     <col min="12" max="12" customWidth="1" width="20"/>
     <col min="13" max="13" customWidth="1" width="20"/>
+    <col min="14" max="14" customWidth="1" width="20"/>
+    <col min="15" max="15" customWidth="1" width="20"/>
+    <col min="16" max="16" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1336,39 +1606,48 @@
         <v>Kalem</v>
       </c>
       <c r="B1" t="str">
+        <v>2025/12</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2025/9</v>
+      </c>
+      <c r="D1" t="str">
         <v>2025/6</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>2025/3</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>2024/12</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
+        <v>2024/9</v>
+      </c>
+      <c r="H1" t="str">
         <v>2024/6</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>2024/3</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>2023/12</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>2023/6</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>2023/3</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <v>2022/12</v>
       </c>
-      <c r="K1" t="str">
+      <c r="N1" t="str">
         <v>2022/6</v>
       </c>
-      <c r="L1" t="str">
+      <c r="O1" t="str">
         <v>2022/3</v>
       </c>
-      <c r="M1" t="str">
+      <c r="P1" t="str">
         <v>2021/12</v>
       </c>
     </row>
@@ -1382,39 +1661,48 @@
         <v xml:space="preserve">    ESAS FAALİYET GELİRLERİ</v>
       </c>
       <c r="B3">
+        <v>9574437000</v>
+      </c>
+      <c r="C3">
+        <v>7255446000</v>
+      </c>
+      <c r="D3">
         <v>4926193000</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>2653970000</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>12809590000</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <v>10280627000</v>
+      </c>
+      <c r="H3">
         <v>6918423000</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>3225693000</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>8670672000</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>3095297000</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>1319228000</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>2429221000</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>725811000</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>315929000</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>772176000</v>
       </c>
     </row>
@@ -1423,39 +1711,48 @@
         <v xml:space="preserve">    Faktoring Gelirleri</v>
       </c>
       <c r="B4">
+        <v>9574437000</v>
+      </c>
+      <c r="C4">
+        <v>7255446000</v>
+      </c>
+      <c r="D4">
         <v>4926193000</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>2653970000</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>12809590000</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>10280627000</v>
+      </c>
+      <c r="H4">
         <v>6918423000</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>3225693000</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>8670672000</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>3095297000</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>1319228000</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>2429221000</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>725811000</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>315929000</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>772176000</v>
       </c>
     </row>
@@ -1509,6 +1806,15 @@
       <c r="M7">
         <v>0</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1550,6 +1856,15 @@
       <c r="M8">
         <v>0</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1591,45 +1906,63 @@
       <c r="M9">
         <v>0</v>
       </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v xml:space="preserve">    Finansman Giderleri (-)</v>
       </c>
       <c r="B10">
+        <v>-6587793000</v>
+      </c>
+      <c r="C10">
+        <v>-5115079000</v>
+      </c>
+      <c r="D10">
         <v>-3563914000</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>-2006492000</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>-10455033000</v>
       </c>
-      <c r="E10">
+      <c r="G10">
+        <v>-8594106000</v>
+      </c>
+      <c r="H10">
         <v>-5735250000</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>-2770469000</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>-6510345000</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>-2257442000</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>-977003000</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>-1692690000</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>-532733000</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>-238125000</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>-603973000</v>
       </c>
     </row>
@@ -1638,39 +1971,48 @@
         <v xml:space="preserve">    BRÜT KAR (ZARAR))</v>
       </c>
       <c r="B11">
+        <v>2986644000</v>
+      </c>
+      <c r="C11">
+        <v>2140367000</v>
+      </c>
+      <c r="D11">
         <v>1362279000</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>647478000</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2354557000</v>
       </c>
-      <c r="E11">
+      <c r="G11">
+        <v>1686521000</v>
+      </c>
+      <c r="H11">
         <v>1183173000</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>455224000</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>2160327000</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>837855000</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>342225000</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>736531000</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>193078000</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>77804000</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>168203000</v>
       </c>
     </row>
@@ -1679,39 +2021,48 @@
         <v xml:space="preserve">    Esas Faaliyet Giderleri (-)</v>
       </c>
       <c r="B12">
+        <v>-336575000</v>
+      </c>
+      <c r="C12">
+        <v>-229534000</v>
+      </c>
+      <c r="D12">
         <v>-145518000</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>-60347000</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>-230783000</v>
       </c>
-      <c r="E12">
+      <c r="G12">
+        <v>-147628000</v>
+      </c>
+      <c r="H12">
         <v>-89465000</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>-41351000</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>-133733000</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>-45145000</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>-18901000</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>-59165000</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>-20493000</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>-9029000</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>-31036000</v>
       </c>
     </row>
@@ -1720,39 +2071,48 @@
         <v xml:space="preserve">    BRÜT FAALİYET KARI (ZARARI))</v>
       </c>
       <c r="B13">
+        <v>2650069000</v>
+      </c>
+      <c r="C13">
+        <v>1910833000</v>
+      </c>
+      <c r="D13">
         <v>1216761000</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>587131000</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2123774000</v>
       </c>
-      <c r="E13">
+      <c r="G13">
+        <v>1538893000</v>
+      </c>
+      <c r="H13">
         <v>1093708000</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>413873000</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>2026594000</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>792710000</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>323324000</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>677366000</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>172585000</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>68775000</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>137167000</v>
       </c>
     </row>
@@ -1761,39 +2121,48 @@
         <v xml:space="preserve">    Diğer Faaliyet Gelirleri</v>
       </c>
       <c r="B14">
+        <v>3497681000</v>
+      </c>
+      <c r="C14">
+        <v>2925765000</v>
+      </c>
+      <c r="D14">
         <v>2298926000</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>1014111000</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1945553000</v>
       </c>
-      <c r="E14">
+      <c r="G14">
+        <v>1413539000</v>
+      </c>
+      <c r="H14">
         <v>762742000</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>532667000</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>1857587000</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>1038385000</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>172696000</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>1286478000</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>917044000</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>575666000</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>1141711000</v>
       </c>
     </row>
@@ -1802,39 +2171,48 @@
         <v xml:space="preserve">    Karşılık Giderleri</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-26650000</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>-79615000</v>
-      </c>
-      <c r="E15">
-        <v>-26165000</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
       </c>
       <c r="G15">
         <v>-26165000</v>
       </c>
       <c r="H15">
+        <v>-26165000</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>-26165000</v>
+      </c>
+      <c r="K15">
         <v>-10467000</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>-7440000</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>-1972000</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>-71000</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>-8861000</v>
       </c>
     </row>
@@ -1843,39 +2221,48 @@
         <v xml:space="preserve">    Diğer Faaliyet Giderleri (-)</v>
       </c>
       <c r="B16">
+        <v>-3372971000</v>
+      </c>
+      <c r="C16">
+        <v>-2817557000</v>
+      </c>
+      <c r="D16">
         <v>-2256025000</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>-996619000</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>-1549037000</v>
       </c>
-      <c r="E16">
+      <c r="G16">
+        <v>-1132981000</v>
+      </c>
+      <c r="H16">
         <v>-578747000</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>-457826000</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>-1709507000</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>-980135000</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>-145818000</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>-1233939000</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>-877718000</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>-540279000</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>-1109218000</v>
       </c>
     </row>
@@ -1884,39 +2271,48 @@
         <v xml:space="preserve">    NET FAALİYET KARI (ZARARI)</v>
       </c>
       <c r="B17">
+        <v>2748129000</v>
+      </c>
+      <c r="C17">
+        <v>2019041000</v>
+      </c>
+      <c r="D17">
         <v>1259662000</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>604623000</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2440675000</v>
       </c>
-      <c r="E17">
+      <c r="G17">
+        <v>1793286000</v>
+      </c>
+      <c r="H17">
         <v>1251538000</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>488714000</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>2148509000</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>840493000</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>350202000</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>722465000</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>209939000</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>104091000</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>160799000</v>
       </c>
     </row>
@@ -1927,18 +2323,18 @@
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
         <v>0</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
@@ -1949,6 +2345,15 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
@@ -1959,18 +2364,18 @@
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
         <v>0</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -1981,6 +2386,15 @@
         <v>0</v>
       </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
     </row>
@@ -1991,18 +2405,18 @@
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
         <v>0</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
         <v>0</v>
       </c>
@@ -2013,6 +2427,15 @@
         <v>0</v>
       </c>
       <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
     </row>
@@ -2021,39 +2444,48 @@
         <v xml:space="preserve">    SÜRDÜRÜLEN FAALİYETLER VERGİ ÖNCESİ KARI (ZARARI)</v>
       </c>
       <c r="B21">
+        <v>2748129000</v>
+      </c>
+      <c r="C21">
+        <v>2019041000</v>
+      </c>
+      <c r="D21">
         <v>1259662000</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>604623000</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2440675000</v>
       </c>
-      <c r="E21">
+      <c r="G21">
+        <v>1793286000</v>
+      </c>
+      <c r="H21">
         <v>1251538000</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>488714000</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>2148509000</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>840493000</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>350202000</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>722465000</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>209939000</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>104091000</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>160799000</v>
       </c>
     </row>
@@ -2062,39 +2494,48 @@
         <v xml:space="preserve">    Sürdürülen Faaliyetler Vergi Karşılığı (+/-)</v>
       </c>
       <c r="B22">
+        <v>-823271000</v>
+      </c>
+      <c r="C22">
+        <v>-604288000</v>
+      </c>
+      <c r="D22">
         <v>-378368000</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>-181606000</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>-733496000</v>
       </c>
-      <c r="E22">
+      <c r="G22">
+        <v>-538939000</v>
+      </c>
+      <c r="H22">
         <v>-376096000</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>-146949000</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>-643773000</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>-209393000</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>-86797000</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>-175745000</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>-50255000</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>-50729000</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>-44513000</v>
       </c>
     </row>
@@ -2103,39 +2544,48 @@
         <v xml:space="preserve">    Cari Vergi Karşılığı</v>
       </c>
       <c r="B23">
+        <v>-832326000</v>
+      </c>
+      <c r="C23">
+        <v>-605018000</v>
+      </c>
+      <c r="D23">
         <v>-379137000</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>-181691000</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>-750535000</v>
       </c>
-      <c r="E23">
+      <c r="G23">
+        <v>-539652000</v>
+      </c>
+      <c r="H23">
         <v>-376788000</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>-146931000</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>-646026000</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>-210077000</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>-87100000</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>-125516000</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>-96064000</v>
       </c>
     </row>
@@ -2154,28 +2604,40 @@
       <c r="C25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>-18000</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>-50229000</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>-50255000</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>-50255000</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>0</v>
       </c>
     </row>
@@ -2184,39 +2646,48 @@
         <v xml:space="preserve">    SÜRDÜRÜLEN FAALİYETLER DÖNEM NET KARI (ZARARI)</v>
       </c>
       <c r="B26">
+        <v>1924858000</v>
+      </c>
+      <c r="C26">
+        <v>1414753000</v>
+      </c>
+      <c r="D26">
         <v>881294000</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>423017000</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>1707179000</v>
       </c>
-      <c r="E26">
+      <c r="G26">
+        <v>1254347000</v>
+      </c>
+      <c r="H26">
         <v>875442000</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>341765000</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>1504736000</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>631100000</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>263405000</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>546720000</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>159684000</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>53362000</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>116286000</v>
       </c>
     </row>
@@ -2227,18 +2698,18 @@
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="D27">
         <v>0</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2249,6 +2720,15 @@
         <v>0</v>
       </c>
       <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>0</v>
       </c>
     </row>
@@ -2257,39 +2737,48 @@
         <v xml:space="preserve">    DÖNEM KARI (ZARARI)</v>
       </c>
       <c r="B28">
+        <v>1924858000</v>
+      </c>
+      <c r="C28">
+        <v>1414753000</v>
+      </c>
+      <c r="D28">
         <v>881294000</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>423017000</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>1707179000</v>
       </c>
-      <c r="E28">
+      <c r="G28">
+        <v>1254347000</v>
+      </c>
+      <c r="H28">
         <v>875442000</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>341765000</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>1504736000</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>631100000</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>263405000</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>546720000</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>159684000</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>53362000</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>116286000</v>
       </c>
     </row>
@@ -2300,18 +2789,18 @@
       <c r="B29">
         <v>0</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29">
         <v>0</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
         <v>0</v>
       </c>
@@ -2322,6 +2811,15 @@
         <v>0</v>
       </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>0</v>
       </c>
     </row>
@@ -2330,57 +2828,66 @@
         <v xml:space="preserve">    Ana Ortaklık Payları</v>
       </c>
       <c r="B30">
+        <v>1924858000</v>
+      </c>
+      <c r="C30">
+        <v>1414753000</v>
+      </c>
+      <c r="D30">
         <v>881294000</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>423017000</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>1707179000</v>
       </c>
-      <c r="E30">
+      <c r="G30">
+        <v>1254347000</v>
+      </c>
+      <c r="H30">
         <v>875442000</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>341765000</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>1504736000</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>631100000</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>263405000</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>546720000</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>159684000</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>53362000</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>116286000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P30"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="40"/>
+    <col min="1" max="1" customWidth="1" width="40" level="2" outlineLevel="2"/>
     <col min="2" max="2" customWidth="1" width="20"/>
     <col min="3" max="3" customWidth="1" width="20"/>
     <col min="4" max="4" customWidth="1" width="20"/>
@@ -2393,6 +2900,9 @@
     <col min="11" max="11" customWidth="1" width="20"/>
     <col min="12" max="12" customWidth="1" width="20"/>
     <col min="13" max="13" customWidth="1" width="20"/>
+    <col min="14" max="14" customWidth="1" width="20"/>
+    <col min="15" max="15" customWidth="1" width="20"/>
+    <col min="16" max="16" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2400,39 +2910,48 @@
         <v>Kalem</v>
       </c>
       <c r="B1" t="str">
+        <v>2025/12</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2025/9</v>
+      </c>
+      <c r="D1" t="str">
         <v>2025/6</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>2025/3</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>2024/12</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
+        <v>2024/9</v>
+      </c>
+      <c r="H1" t="str">
         <v>2024/6</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>2024/3</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>2023/12</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>2023/6</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>2023/3</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <v>2022/12</v>
       </c>
-      <c r="K1" t="str">
+      <c r="N1" t="str">
         <v>2022/6</v>
       </c>
-      <c r="L1" t="str">
+      <c r="O1" t="str">
         <v>2022/3</v>
       </c>
-      <c r="M1" t="str">
+      <c r="P1" t="str">
         <v>2021/12</v>
       </c>
     </row>
@@ -2446,27 +2965,39 @@
         <v xml:space="preserve">    ESAS FAALİYET GELİRLERİ</v>
       </c>
       <c r="B3">
+        <v>2318991000</v>
+      </c>
+      <c r="C3">
+        <v>2329253000</v>
+      </c>
+      <c r="D3">
         <v>2272223000</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>2653970000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>2528963000</v>
+      </c>
+      <c r="G3">
+        <v>3362204000</v>
+      </c>
+      <c r="H3">
         <v>3692730000</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>3225693000</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>1776069000</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>1319228000</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>409882000</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>315929000</v>
       </c>
     </row>
@@ -2475,27 +3006,39 @@
         <v xml:space="preserve">    Faktoring Gelirleri</v>
       </c>
       <c r="B4">
+        <v>2318991000</v>
+      </c>
+      <c r="C4">
+        <v>2329253000</v>
+      </c>
+      <c r="D4">
         <v>2272223000</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>2653970000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>2528963000</v>
+      </c>
+      <c r="G4">
+        <v>3362204000</v>
+      </c>
+      <c r="H4">
         <v>3692730000</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>3225693000</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>1776069000</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>1319228000</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>409882000</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>315929000</v>
       </c>
     </row>
@@ -2519,12 +3062,18 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -2535,6 +3084,12 @@
         <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
     </row>
@@ -2548,12 +3103,18 @@
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -2564,6 +3125,12 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
     </row>
@@ -2577,12 +3144,18 @@
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -2593,6 +3166,12 @@
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
     </row>
@@ -2601,27 +3180,39 @@
         <v xml:space="preserve">    Finansman Giderleri (-)</v>
       </c>
       <c r="B10">
+        <v>-1472714000</v>
+      </c>
+      <c r="C10">
+        <v>-1551165000</v>
+      </c>
+      <c r="D10">
         <v>-1557422000</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>-2006492000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>-1860927000</v>
+      </c>
+      <c r="G10">
+        <v>-2858856000</v>
+      </c>
+      <c r="H10">
         <v>-2964781000</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>-2770469000</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>-1280439000</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>-977003000</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>-294608000</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>-238125000</v>
       </c>
     </row>
@@ -2630,27 +3221,39 @@
         <v xml:space="preserve">    BRÜT KAR (ZARAR))</v>
       </c>
       <c r="B11">
+        <v>846277000</v>
+      </c>
+      <c r="C11">
+        <v>778088000</v>
+      </c>
+      <c r="D11">
         <v>714801000</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>647478000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>668036000</v>
+      </c>
+      <c r="G11">
+        <v>503348000</v>
+      </c>
+      <c r="H11">
         <v>727949000</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>455224000</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>495630000</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>342225000</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>115274000</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>77804000</v>
       </c>
     </row>
@@ -2659,27 +3262,39 @@
         <v xml:space="preserve">    Esas Faaliyet Giderleri (-)</v>
       </c>
       <c r="B12">
+        <v>-107041000</v>
+      </c>
+      <c r="C12">
+        <v>-84016000</v>
+      </c>
+      <c r="D12">
         <v>-85171000</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>-60347000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <v>-83155000</v>
+      </c>
+      <c r="G12">
+        <v>-58163000</v>
+      </c>
+      <c r="H12">
         <v>-48114000</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>-41351000</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>-26244000</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>-18901000</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>-11464000</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>-9029000</v>
       </c>
     </row>
@@ -2688,27 +3303,39 @@
         <v xml:space="preserve">    BRÜT FAALİYET KARI (ZARARI))</v>
       </c>
       <c r="B13">
+        <v>739236000</v>
+      </c>
+      <c r="C13">
+        <v>694072000</v>
+      </c>
+      <c r="D13">
         <v>629630000</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>587131000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <v>584881000</v>
+      </c>
+      <c r="G13">
+        <v>445185000</v>
+      </c>
+      <c r="H13">
         <v>679835000</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>413873000</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>469386000</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>323324000</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>103810000</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>68775000</v>
       </c>
     </row>
@@ -2717,27 +3344,39 @@
         <v xml:space="preserve">    Diğer Faaliyet Gelirleri</v>
       </c>
       <c r="B14">
+        <v>571916000</v>
+      </c>
+      <c r="C14">
+        <v>626839000</v>
+      </c>
+      <c r="D14">
         <v>1284815000</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>1014111000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <v>532014000</v>
+      </c>
+      <c r="G14">
+        <v>650797000</v>
+      </c>
+      <c r="H14">
         <v>230075000</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>532667000</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>865689000</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>172696000</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>341378000</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>575666000</v>
       </c>
     </row>
@@ -2746,27 +3385,39 @@
         <v xml:space="preserve">    Karşılık Giderleri</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-26650000</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-53450000</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>-26165000</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>-10467000</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>-1901000</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>-71000</v>
       </c>
     </row>
@@ -2775,27 +3426,39 @@
         <v xml:space="preserve">    Diğer Faaliyet Giderleri (-)</v>
       </c>
       <c r="B16">
+        <v>-555414000</v>
+      </c>
+      <c r="C16">
+        <v>-561532000</v>
+      </c>
+      <c r="D16">
         <v>-1259406000</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>-996619000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <v>-416056000</v>
+      </c>
+      <c r="G16">
+        <v>-554234000</v>
+      </c>
+      <c r="H16">
         <v>-120921000</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>-457826000</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>-834317000</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>-145818000</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>-337439000</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>-540279000</v>
       </c>
     </row>
@@ -2804,27 +3467,39 @@
         <v xml:space="preserve">    NET FAALİYET KARI (ZARARI)</v>
       </c>
       <c r="B17">
+        <v>729088000</v>
+      </c>
+      <c r="C17">
+        <v>759379000</v>
+      </c>
+      <c r="D17">
         <v>655039000</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>604623000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <v>647389000</v>
+      </c>
+      <c r="G17">
+        <v>541748000</v>
+      </c>
+      <c r="H17">
         <v>762824000</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>488714000</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>490291000</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>350202000</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>105848000</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>104091000</v>
       </c>
     </row>
@@ -2832,16 +3507,25 @@
       <c r="A18" t="str">
         <v xml:space="preserve">    Birleşme İşlemi Sonrasında Gelir Olarak Kaydedilen Fazlalık Tutarı</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
     </row>
@@ -2849,16 +3533,25 @@
       <c r="A19" t="str">
         <v xml:space="preserve">    Özkaynak Yöntemi Uygulanan Ortaklıklardan Kar (Zarar)</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>0</v>
       </c>
     </row>
@@ -2866,16 +3559,25 @@
       <c r="A20" t="str">
         <v xml:space="preserve">    Net Parasal Pozisyon Karı (Zararı)</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>0</v>
       </c>
     </row>
@@ -2884,27 +3586,39 @@
         <v xml:space="preserve">    SÜRDÜRÜLEN FAALİYETLER VERGİ ÖNCESİ KARI (ZARARI)</v>
       </c>
       <c r="B21">
+        <v>729088000</v>
+      </c>
+      <c r="C21">
+        <v>759379000</v>
+      </c>
+      <c r="D21">
         <v>655039000</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>604623000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <v>647389000</v>
+      </c>
+      <c r="G21">
+        <v>541748000</v>
+      </c>
+      <c r="H21">
         <v>762824000</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>488714000</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>490291000</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>350202000</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>105848000</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>104091000</v>
       </c>
     </row>
@@ -2913,27 +3627,39 @@
         <v xml:space="preserve">    Sürdürülen Faaliyetler Vergi Karşılığı (+/-)</v>
       </c>
       <c r="B22">
+        <v>-218983000</v>
+      </c>
+      <c r="C22">
+        <v>-225920000</v>
+      </c>
+      <c r="D22">
         <v>-196762000</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>-181606000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
+        <v>-194557000</v>
+      </c>
+      <c r="G22">
+        <v>-162843000</v>
+      </c>
+      <c r="H22">
         <v>-229147000</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>-146949000</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>-122596000</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>-86797000</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>474000</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>-50729000</v>
       </c>
     </row>
@@ -2942,27 +3668,39 @@
         <v xml:space="preserve">    Cari Vergi Karşılığı</v>
       </c>
       <c r="B23">
+        <v>-227308000</v>
+      </c>
+      <c r="C23">
+        <v>-225881000</v>
+      </c>
+      <c r="D23">
         <v>-197446000</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>-181691000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
+        <v>-210883000</v>
+      </c>
+      <c r="G23">
+        <v>-162864000</v>
+      </c>
+      <c r="H23">
         <v>-229857000</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>-146931000</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>-122977000</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>-87100000</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>0</v>
       </c>
     </row>
@@ -2981,22 +3719,34 @@
       <c r="C25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>18000</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>-18000</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>-50255000</v>
       </c>
     </row>
@@ -3005,27 +3755,39 @@
         <v xml:space="preserve">    SÜRDÜRÜLEN FAALİYETLER DÖNEM NET KARI (ZARARI)</v>
       </c>
       <c r="B26">
+        <v>510105000</v>
+      </c>
+      <c r="C26">
+        <v>533459000</v>
+      </c>
+      <c r="D26">
         <v>458277000</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>423017000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
+        <v>452832000</v>
+      </c>
+      <c r="G26">
+        <v>378905000</v>
+      </c>
+      <c r="H26">
         <v>533677000</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>341765000</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>367695000</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>263405000</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>106322000</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>53362000</v>
       </c>
     </row>
@@ -3033,16 +3795,25 @@
       <c r="A27" t="str">
         <v xml:space="preserve">    Durdurulan Faaliyetler Dönem Net Karı (Zararı)</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>0</v>
       </c>
     </row>
@@ -3051,27 +3822,39 @@
         <v xml:space="preserve">    DÖNEM KARI (ZARARI)</v>
       </c>
       <c r="B28">
+        <v>510105000</v>
+      </c>
+      <c r="C28">
+        <v>533459000</v>
+      </c>
+      <c r="D28">
         <v>458277000</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>423017000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
+        <v>452832000</v>
+      </c>
+      <c r="G28">
+        <v>378905000</v>
+      </c>
+      <c r="H28">
         <v>533677000</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>341765000</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>367695000</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>263405000</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>106322000</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>53362000</v>
       </c>
     </row>
@@ -3079,16 +3862,25 @@
       <c r="A29" t="str">
         <v xml:space="preserve">    Azınlık Payları</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>0</v>
       </c>
     </row>
@@ -3097,45 +3889,57 @@
         <v xml:space="preserve">    Ana Ortaklık Payları</v>
       </c>
       <c r="B30">
+        <v>510105000</v>
+      </c>
+      <c r="C30">
+        <v>533459000</v>
+      </c>
+      <c r="D30">
         <v>458277000</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>423017000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
+        <v>452832000</v>
+      </c>
+      <c r="G30">
+        <v>378905000</v>
+      </c>
+      <c r="H30">
         <v>533677000</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>341765000</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>367695000</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>263405000</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>106322000</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>53362000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P30"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="40"/>
+    <col min="1" max="1" customWidth="1" width="40" level="2" outlineLevel="2"/>
     <col min="2" max="2" customWidth="1" width="20"/>
     <col min="3" max="3" customWidth="1" width="20"/>
     <col min="4" max="4" customWidth="1" width="20"/>
@@ -3148,6 +3952,9 @@
     <col min="11" max="11" customWidth="1" width="20"/>
     <col min="12" max="12" customWidth="1" width="20"/>
     <col min="13" max="13" customWidth="1" width="20"/>
+    <col min="14" max="14" customWidth="1" width="20"/>
+    <col min="15" max="15" customWidth="1" width="20"/>
+    <col min="16" max="16" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3155,39 +3962,48 @@
         <v>Kalem</v>
       </c>
       <c r="B1" t="str">
+        <v>2025/12</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2025/9</v>
+      </c>
+      <c r="D1" t="str">
         <v>2025/6</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>2025/3</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>2024/12</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
+        <v>2024/9</v>
+      </c>
+      <c r="H1" t="str">
         <v>2024/6</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>2024/3</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>2023/12</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>2023/6</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>2023/3</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <v>2022/12</v>
       </c>
-      <c r="K1" t="str">
+      <c r="N1" t="str">
         <v>2022/6</v>
       </c>
-      <c r="L1" t="str">
+      <c r="O1" t="str">
         <v>2022/3</v>
       </c>
-      <c r="M1" t="str">
+      <c r="P1" t="str">
         <v>2021/12</v>
       </c>
     </row>
@@ -3201,33 +4017,39 @@
         <v xml:space="preserve">    ESAS FAALİYET GELİRLERİ</v>
       </c>
       <c r="B3">
+        <v>9574437000</v>
+      </c>
+      <c r="C3">
+        <v>9784409000</v>
+      </c>
+      <c r="D3">
         <v>10817360000</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>12237867000</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>12809590000</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>12493798000</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>10577137000</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>8670672000</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>4798707000</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>3432520000</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>2429221000</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>772176000</v>
       </c>
     </row>
@@ -3236,33 +4058,39 @@
         <v xml:space="preserve">    Faktoring Gelirleri</v>
       </c>
       <c r="B4">
+        <v>9574437000</v>
+      </c>
+      <c r="C4">
+        <v>9784409000</v>
+      </c>
+      <c r="D4">
         <v>10817360000</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>12237867000</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>12809590000</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>12493798000</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>10577137000</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>8670672000</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>4798707000</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>3432520000</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>2429221000</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>772176000</v>
       </c>
     </row>
@@ -3295,9 +4123,6 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -3307,7 +4132,16 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
@@ -3330,9 +4164,6 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -3342,7 +4173,16 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
     </row>
@@ -3365,9 +4205,6 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -3377,7 +4214,16 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
     </row>
@@ -3386,33 +4232,39 @@
         <v xml:space="preserve">    Finansman Giderleri (-)</v>
       </c>
       <c r="B10">
+        <v>-6587793000</v>
+      </c>
+      <c r="C10">
+        <v>-6976006000</v>
+      </c>
+      <c r="D10">
         <v>-8283697000</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>-9691056000</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>-10455033000</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>-9988153000</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>-8303811000</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>-6510345000</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>-3417399000</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>-2431568000</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>-1692690000</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>-603973000</v>
       </c>
     </row>
@@ -3421,33 +4273,39 @@
         <v xml:space="preserve">    BRÜT KAR (ZARAR))</v>
       </c>
       <c r="B11">
+        <v>2986644000</v>
+      </c>
+      <c r="C11">
+        <v>2808403000</v>
+      </c>
+      <c r="D11">
         <v>2533663000</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>2546811000</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2354557000</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>2505645000</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>2273326000</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>2160327000</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>1381308000</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>1000952000</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>736531000</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>168203000</v>
       </c>
     </row>
@@ -3456,33 +4314,39 @@
         <v xml:space="preserve">    Esas Faaliyet Giderleri (-)</v>
       </c>
       <c r="B12">
+        <v>-336575000</v>
+      </c>
+      <c r="C12">
+        <v>-312689000</v>
+      </c>
+      <c r="D12">
         <v>-286836000</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>-249779000</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>-230783000</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>-178053000</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>-156183000</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>-133733000</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>-83817000</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>-69037000</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>-59165000</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>-31036000</v>
       </c>
     </row>
@@ -3491,33 +4355,39 @@
         <v xml:space="preserve">    BRÜT FAALİYET KARI (ZARARI))</v>
       </c>
       <c r="B13">
+        <v>2650069000</v>
+      </c>
+      <c r="C13">
+        <v>2495714000</v>
+      </c>
+      <c r="D13">
         <v>2246827000</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>2297032000</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2123774000</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>2327592000</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>2117143000</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>2026594000</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>1297491000</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>931915000</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>677366000</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>137167000</v>
       </c>
     </row>
@@ -3526,33 +4396,39 @@
         <v xml:space="preserve">    Diğer Faaliyet Gelirleri</v>
       </c>
       <c r="B14">
+        <v>3497681000</v>
+      </c>
+      <c r="C14">
+        <v>3457779000</v>
+      </c>
+      <c r="D14">
         <v>3481737000</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>2426997000</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1945553000</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>1581944000</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>2217558000</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>1857587000</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>1407819000</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>883508000</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>1286478000</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>1141711000</v>
       </c>
     </row>
@@ -3561,33 +4437,39 @@
         <v xml:space="preserve">    Karşılık Giderleri</v>
       </c>
       <c r="B15">
+        <v>-26650000</v>
+      </c>
+      <c r="C15">
         <v>-53450000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
+        <v>-53450000</v>
+      </c>
+      <c r="E15">
         <v>-79615000</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>-79615000</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>-41863000</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>-26165000</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>-26165000</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>-15935000</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>-7369000</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>-7440000</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>-8861000</v>
       </c>
     </row>
@@ -3596,33 +4478,39 @@
         <v xml:space="preserve">    Diğer Faaliyet Giderleri (-)</v>
       </c>
       <c r="B16">
+        <v>-3372971000</v>
+      </c>
+      <c r="C16">
+        <v>-3233613000</v>
+      </c>
+      <c r="D16">
         <v>-3226315000</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>-2087830000</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>-1549037000</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>-1308119000</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>-2021515000</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>-1709507000</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>-1336356000</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>-839478000</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>-1233939000</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>-1109218000</v>
       </c>
     </row>
@@ -3631,33 +4519,39 @@
         <v xml:space="preserve">    NET FAALİYET KARI (ZARARI)</v>
       </c>
       <c r="B17">
+        <v>2748129000</v>
+      </c>
+      <c r="C17">
+        <v>2666430000</v>
+      </c>
+      <c r="D17">
         <v>2448799000</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>2556584000</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2440675000</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>2559554000</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>2287021000</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>2148509000</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>1353019000</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>968576000</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>722465000</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>160799000</v>
       </c>
     </row>
@@ -3665,22 +4559,28 @@
       <c r="A18" t="str">
         <v xml:space="preserve">    Birleşme İşlemi Sonrasında Gelir Olarak Kaydedilen Fazlalık Tutarı</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
@@ -3688,22 +4588,28 @@
       <c r="A19" t="str">
         <v xml:space="preserve">    Özkaynak Yöntemi Uygulanan Ortaklıklardan Kar (Zarar)</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
     </row>
@@ -3711,22 +4617,28 @@
       <c r="A20" t="str">
         <v xml:space="preserve">    Net Parasal Pozisyon Karı (Zararı)</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
     </row>
@@ -3735,33 +4647,39 @@
         <v xml:space="preserve">    SÜRDÜRÜLEN FAALİYETLER VERGİ ÖNCESİ KARI (ZARARI)</v>
       </c>
       <c r="B21">
+        <v>2748129000</v>
+      </c>
+      <c r="C21">
+        <v>2666430000</v>
+      </c>
+      <c r="D21">
         <v>2448799000</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>2556584000</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2440675000</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>2559554000</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>2287021000</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>2148509000</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>1353019000</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>968576000</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>722465000</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>160799000</v>
       </c>
     </row>
@@ -3770,33 +4688,39 @@
         <v xml:space="preserve">    Sürdürülen Faaliyetler Vergi Karşılığı (+/-)</v>
       </c>
       <c r="B22">
+        <v>-823271000</v>
+      </c>
+      <c r="C22">
+        <v>-798845000</v>
+      </c>
+      <c r="D22">
         <v>-735768000</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>-768153000</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>-733496000</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>-810476000</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>-703925000</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>-643773000</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>-334883000</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>-211813000</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>-175745000</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>-44513000</v>
       </c>
     </row>
@@ -3805,33 +4729,39 @@
         <v xml:space="preserve">    Cari Vergi Karşılığı</v>
       </c>
       <c r="B23">
+        <v>-832326000</v>
+      </c>
+      <c r="C23">
+        <v>-815901000</v>
+      </c>
+      <c r="D23">
         <v>-752884000</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>-785295000</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>-750535000</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>-812737000</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>-705857000</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>-646026000</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>-335593000</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>-212616000</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>-125516000</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>-96064000</v>
       </c>
     </row>
@@ -3844,16 +4774,31 @@
       <c r="A25" t="str">
         <v xml:space="preserve">    Ertelenmiş Vergi Gider Etkisi</v>
       </c>
-      <c r="H25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>18000</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>26000</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>26000</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>-50229000</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>0</v>
       </c>
     </row>
@@ -3862,33 +4807,39 @@
         <v xml:space="preserve">    SÜRDÜRÜLEN FAALİYETLER DÖNEM NET KARI (ZARARI)</v>
       </c>
       <c r="B26">
+        <v>1924858000</v>
+      </c>
+      <c r="C26">
+        <v>1867585000</v>
+      </c>
+      <c r="D26">
         <v>1713031000</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>1788431000</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>1707179000</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>1749078000</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>1583096000</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>1504736000</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>1018136000</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>756763000</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>546720000</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>116286000</v>
       </c>
     </row>
@@ -3896,22 +4847,28 @@
       <c r="A27" t="str">
         <v xml:space="preserve">    Durdurulan Faaliyetler Dönem Net Karı (Zararı)</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>0</v>
       </c>
     </row>
@@ -3920,33 +4877,39 @@
         <v xml:space="preserve">    DÖNEM KARI (ZARARI)</v>
       </c>
       <c r="B28">
+        <v>1924858000</v>
+      </c>
+      <c r="C28">
+        <v>1867585000</v>
+      </c>
+      <c r="D28">
         <v>1713031000</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>1788431000</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>1707179000</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>1749078000</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>1583096000</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>1504736000</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>1018136000</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>756763000</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>546720000</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>116286000</v>
       </c>
     </row>
@@ -3954,22 +4917,28 @@
       <c r="A29" t="str">
         <v xml:space="preserve">    Azınlık Payları</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>0</v>
       </c>
     </row>
@@ -3978,51 +4947,57 @@
         <v xml:space="preserve">    Ana Ortaklık Payları</v>
       </c>
       <c r="B30">
+        <v>1924858000</v>
+      </c>
+      <c r="C30">
+        <v>1867585000</v>
+      </c>
+      <c r="D30">
         <v>1713031000</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>1788431000</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>1707179000</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>1749078000</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>1583096000</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>1504736000</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>1018136000</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>756763000</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>546720000</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>116286000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P30"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="40"/>
+    <col min="1" max="1" customWidth="1" width="40" level="2" outlineLevel="2"/>
     <col min="2" max="2" customWidth="1" width="20"/>
     <col min="3" max="3" customWidth="1" width="20"/>
     <col min="4" max="4" customWidth="1" width="20"/>
@@ -4031,6 +5006,9 @@
     <col min="7" max="7" customWidth="1" width="20"/>
     <col min="8" max="8" customWidth="1" width="20"/>
     <col min="9" max="9" customWidth="1" width="20"/>
+    <col min="10" max="10" customWidth="1" width="20"/>
+    <col min="11" max="11" customWidth="1" width="20"/>
+    <col min="12" max="12" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4038,27 +5016,36 @@
         <v>Kalem</v>
       </c>
       <c r="B1" t="str">
+        <v>2025/12</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2025/9</v>
+      </c>
+      <c r="D1" t="str">
         <v>2025/6</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>2024/12</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
+        <v>2024/9</v>
+      </c>
+      <c r="G1" t="str">
         <v>2024/6</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>2023/12</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>2023/6</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>2022/12</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>2022/6</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>2021/12</v>
       </c>
     </row>
@@ -4072,27 +5059,36 @@
         <v xml:space="preserve">    ESAS FAALİYET KONUSU VARLIK VE YÜKÜMLÜLÜKLERDEKİ DEĞİŞİM ÖNCESİ FAALİYET KARI (ZARARI)</v>
       </c>
       <c r="B3">
+        <v>2180215000</v>
+      </c>
+      <c r="C3">
+        <v>621040000</v>
+      </c>
+      <c r="D3">
         <v>490067000</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1115003000</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1463179000</v>
+      </c>
+      <c r="G3">
         <v>2203262000</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1881309000</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>945675000</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>263233000</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>-112745000</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>187010000</v>
       </c>
     </row>
@@ -4101,27 +5097,36 @@
         <v xml:space="preserve">    Alınan Faizler/ Alınan Kâr Payları / Kiralama Gelirleri</v>
       </c>
       <c r="B4">
+        <v>9565696000</v>
+      </c>
+      <c r="C4">
+        <v>6763998000</v>
+      </c>
+      <c r="D4">
         <v>4622136000</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>12952560000</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>10134816000</v>
+      </c>
+      <c r="G4">
         <v>6793144000</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>6814870000</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>2727731000</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>2226469000</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>718367000</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>570734000</v>
       </c>
     </row>
@@ -4130,27 +5135,36 @@
         <v xml:space="preserve">    Ödenen Faizler / Ödenen Kâr Payları / Kiralama Giderleri</v>
       </c>
       <c r="B5">
+        <v>-6282796000</v>
+      </c>
+      <c r="C5">
+        <v>-5346945000</v>
+      </c>
+      <c r="D5">
         <v>-3617110000</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>-10948614000</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>-8006534000</v>
+      </c>
+      <c r="G5">
         <v>-4203467000</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>-5474956000</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>-1994450000</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-1588750000</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>-563308000</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>-515777000</v>
       </c>
     </row>
@@ -4158,13 +5172,13 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Alınan Temettüler</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
     </row>
@@ -4173,27 +5187,36 @@
         <v xml:space="preserve">    Alınan Ücret ve Komisyonlar</v>
       </c>
       <c r="B7">
+        <v>10829000</v>
+      </c>
+      <c r="C7">
+        <v>8916000</v>
+      </c>
+      <c r="D7">
         <v>6074000</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>21825000</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>17987000</v>
+      </c>
+      <c r="G7">
         <v>11284000</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>1164455000</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>410691000</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>21394000</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>3653000</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>2811000</v>
       </c>
     </row>
@@ -4202,27 +5225,36 @@
         <v xml:space="preserve">    Zarar Olarak Muhasebeleştirilen Takipteki Alacaklardan Tahsilatlar</v>
       </c>
       <c r="B8">
+        <v>444000</v>
+      </c>
+      <c r="C8">
+        <v>349000</v>
+      </c>
+      <c r="D8">
         <v>213000</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>1264000</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>948000</v>
+      </c>
+      <c r="G8">
         <v>465000</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>-5619000</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>1643000</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>-7088000</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>4176000</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>6641000</v>
       </c>
     </row>
@@ -4231,27 +5263,36 @@
         <v xml:space="preserve">    Personele ve Hizmet Tedarik Edenlere Yapılan Nakit Ödemeler</v>
       </c>
       <c r="B9">
+        <v>-195929000</v>
+      </c>
+      <c r="C9">
+        <v>-146095000</v>
+      </c>
+      <c r="D9">
         <v>-96959000</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>-137475000</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>-101599000</v>
+      </c>
+      <c r="G9">
         <v>-66213000</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>-68722000</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>-27669000</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>-31141000</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>-16511000</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>-31036000</v>
       </c>
     </row>
@@ -4260,27 +5301,36 @@
         <v xml:space="preserve">    Ödenen Vergiler</v>
       </c>
       <c r="B10">
+        <v>-814443000</v>
+      </c>
+      <c r="C10">
+        <v>-596191000</v>
+      </c>
+      <c r="D10">
         <v>-388758000</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>-722637000</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>-555957000</v>
+      </c>
+      <c r="G10">
         <v>-326100000</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>-539203000</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>-159446000</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>-116124000</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>-62954000</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>-33110000</v>
       </c>
     </row>
@@ -4289,27 +5339,36 @@
         <v xml:space="preserve">    Diğer</v>
       </c>
       <c r="B11">
+        <v>-103586000</v>
+      </c>
+      <c r="C11">
+        <v>-62992000</v>
+      </c>
+      <c r="D11">
         <v>-35529000</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>-51920000</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>-26482000</v>
+      </c>
+      <c r="G11">
         <v>-5851000</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>-9516000</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>-12825000</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>-241527000</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>-196168000</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>179882000</v>
       </c>
     </row>
@@ -4318,27 +5377,36 @@
         <v xml:space="preserve">    ESAS FAALİYET KONUSU VARLIK VE YÜKÜMLÜLÜKLERDEKİ DEĞİŞİM</v>
       </c>
       <c r="B12">
+        <v>-3138957000</v>
+      </c>
+      <c r="C12">
+        <v>-1153976000</v>
+      </c>
+      <c r="D12">
         <v>-1052033000</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>-1420185000</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>-1062274000</v>
+      </c>
+      <c r="G12">
         <v>-1852227000</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>-2181983000</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>821579000</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>-872395000</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>376075000</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>-172940000</v>
       </c>
     </row>
@@ -4347,27 +5415,36 @@
         <v xml:space="preserve">    Faktoring Alacaklarındaki Net (Artış) Azalış</v>
       </c>
       <c r="B13">
+        <v>-9201164000</v>
+      </c>
+      <c r="C13">
+        <v>3177057000</v>
+      </c>
+      <c r="D13">
         <v>928345000</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>5197100000</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>10893193000</v>
+      </c>
+      <c r="G13">
         <v>-1332376000</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>-14097533000</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>-2473656000</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>-15425263000</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>-2130551000</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>-1096481000</v>
       </c>
     </row>
@@ -4375,10 +5452,10 @@
       <c r="A14" t="str">
         <v xml:space="preserve">    Finansman Kredilerindeki Net (Artış) Azalış</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
@@ -4386,10 +5463,10 @@
       <c r="A15" t="str">
         <v xml:space="preserve">    Kiralama İşlemlerinden Alacaklarda Net (Artış) Azalış</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
     </row>
@@ -4397,10 +5474,10 @@
       <c r="A16" t="str">
         <v xml:space="preserve">    Tasarruf Finansman Alacaklarındaki Net (Artış) Azalış</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>0</v>
       </c>
     </row>
@@ -4409,27 +5486,36 @@
         <v xml:space="preserve">    Diğer Varlıklarda Net (Artış) Azalış</v>
       </c>
       <c r="B17">
+        <v>5973000</v>
+      </c>
+      <c r="C17">
+        <v>7357000</v>
+      </c>
+      <c r="D17">
         <v>-1325000</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>89016000</v>
       </c>
-      <c r="D17">
+      <c r="F17">
+        <v>104274000</v>
+      </c>
+      <c r="G17">
         <v>48497000</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>-12339000</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>-235129000</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>-138698000</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>12202000</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>-58717000</v>
       </c>
     </row>
@@ -4438,27 +5524,36 @@
         <v xml:space="preserve">    Faktoring Borçlarındaki Net Artış (Azalış)</v>
       </c>
       <c r="B18">
+        <v>-365000</v>
+      </c>
+      <c r="C18">
+        <v>5589000</v>
+      </c>
+      <c r="D18">
         <v>-366000</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>286000</v>
       </c>
-      <c r="D18">
+      <c r="F18">
+        <v>-90000</v>
+      </c>
+      <c r="G18">
         <v>2052000</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>-5378000</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>-3513000</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>-1841000</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>-6824000</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>6637000</v>
       </c>
     </row>
@@ -4466,10 +5561,10 @@
       <c r="A19" t="str">
         <v xml:space="preserve">    Tasarruf Fon Havuzundaki Net Artış (Azalış)</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>0</v>
       </c>
     </row>
@@ -4478,27 +5573,36 @@
         <v xml:space="preserve">    Kiralama İşlemlerinden Borçlarda Net Artış (Azalış)</v>
       </c>
       <c r="B20">
+        <v>-7712000</v>
+      </c>
+      <c r="C20">
+        <v>-4552000</v>
+      </c>
+      <c r="D20">
         <v>-2881000</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>11497000</v>
       </c>
-      <c r="D20">
+      <c r="F20">
+        <v>11662000</v>
+      </c>
+      <c r="G20">
         <v>10746000</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>5607000</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>-351000</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>-1471000</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>-802000</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>242000</v>
       </c>
     </row>
@@ -4507,27 +5611,36 @@
         <v xml:space="preserve">    Alınan Kredilerdeki Net Artış (Azalış)</v>
       </c>
       <c r="B21">
+        <v>6052733000</v>
+      </c>
+      <c r="C21">
+        <v>-4331381000</v>
+      </c>
+      <c r="D21">
         <v>-1946339000</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>-6699356000</v>
       </c>
-      <c r="D21">
+      <c r="F21">
+        <v>-12088837000</v>
+      </c>
+      <c r="G21">
         <v>-556218000</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>11909592000</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>2945411000</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>14632789000</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>2554514000</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>899872000</v>
       </c>
     </row>
@@ -4535,10 +5648,10 @@
       <c r="A22" t="str">
         <v xml:space="preserve">    Vadesi Gelmiş Borçlarda Net Artış (Azalış)</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>0</v>
       </c>
     </row>
@@ -4547,27 +5660,36 @@
         <v xml:space="preserve">    Diğer Borçlarda Net Artış (Azalış)</v>
       </c>
       <c r="B23">
+        <v>11578000</v>
+      </c>
+      <c r="C23">
+        <v>-8046000</v>
+      </c>
+      <c r="D23">
         <v>-29467000</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>-18728000</v>
       </c>
-      <c r="D23">
+      <c r="F23">
+        <v>17524000</v>
+      </c>
+      <c r="G23">
         <v>-24928000</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>18068000</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>588817000</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>62089000</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>-52464000</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>75507000</v>
       </c>
     </row>
@@ -4576,27 +5698,36 @@
         <v xml:space="preserve">    ESAS FAALİYETLERİNDEN KAYNAKLANAN NET NAKİT AKIŞI</v>
       </c>
       <c r="B24">
+        <v>-958742000</v>
+      </c>
+      <c r="C24">
+        <v>-532936000</v>
+      </c>
+      <c r="D24">
         <v>-561966000</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>-305182000</v>
       </c>
-      <c r="D24">
+      <c r="F24">
+        <v>400905000</v>
+      </c>
+      <c r="G24">
         <v>351035000</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>-300674000</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>1767254000</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>-609162000</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>263330000</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>14070000</v>
       </c>
     </row>
@@ -4604,10 +5735,10 @@
       <c r="A25" t="str">
         <v xml:space="preserve">    İktisap Edilen İştirakler, Bağlı Ortaklıklar ve Birlikte Kontrol Edilen Ortaklıklar (İş Ortaklıkları)</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>
@@ -4621,27 +5752,36 @@
         <v xml:space="preserve">    Satın Alınan Menkuller ve Gayrimenkuller</v>
       </c>
       <c r="B27">
+        <v>-3991000</v>
+      </c>
+      <c r="C27">
+        <v>-3347000</v>
+      </c>
+      <c r="D27">
         <v>-2115000</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>-5419000</v>
       </c>
-      <c r="D27">
+      <c r="F27">
+        <v>-16666000</v>
+      </c>
+      <c r="G27">
         <v>-13867000</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>-8079000</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>-304000</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>-4121000</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>-491000</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>-1894000</v>
       </c>
     </row>
@@ -4650,21 +5790,27 @@
         <v xml:space="preserve">    Elden Çıkarılan Menkul ve Gayrimenkuller</v>
       </c>
       <c r="B28">
+        <v>239000</v>
+      </c>
+      <c r="C28">
         <v>230000</v>
       </c>
-      <c r="E28">
+      <c r="D28">
+        <v>230000</v>
+      </c>
+      <c r="H28">
         <v>826000</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>91000</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>81000</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>120000</v>
       </c>
     </row>
@@ -4672,10 +5818,10 @@
       <c r="A29" t="str">
         <v xml:space="preserve">    Elde Edilen Gerçeğe Uygun Değer Farkı Diğer Kapsamlı Gelire Yansıtılan Finansal Varlıklar</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>0</v>
       </c>
     </row>
@@ -4688,10 +5834,10 @@
       <c r="A31" t="str">
         <v xml:space="preserve">    Satın Alınan İtfa Edilmiş Maliyeti ile Ölçülen Finansal Varlıklar</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>0</v>
       </c>
     </row>
@@ -4704,10 +5850,10 @@
       <c r="A33" t="str">
         <v xml:space="preserve">    Diğer</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>-1736000</v>
       </c>
     </row>
@@ -4716,27 +5862,36 @@
         <v xml:space="preserve">    YATIRIM FAALİYETLERİNDEN KAYNAKLANAN NET NAKİT AKIŞLARI</v>
       </c>
       <c r="B34">
+        <v>53051000</v>
+      </c>
+      <c r="C34">
+        <v>16883000</v>
+      </c>
+      <c r="D34">
         <v>-1885000</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>-5419000</v>
       </c>
-      <c r="D34">
+      <c r="F34">
+        <v>-16666000</v>
+      </c>
+      <c r="G34">
         <v>-13867000</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>-7253000</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>-213000</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>-4121000</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>-410000</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>-3510000</v>
       </c>
     </row>
@@ -4749,25 +5904,34 @@
       <c r="A36" t="str">
         <v xml:space="preserve">    Krediler ve İhraç Edilen Menkul Değerlerden Kaynaklanan Nakit Çıkışı</v>
       </c>
+      <c r="B36">
+        <v>-640415000</v>
+      </c>
       <c r="C36">
-        <v>105628000</v>
-      </c>
-      <c r="D36">
+        <v>-237548000</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>-105628000</v>
       </c>
-      <c r="E36">
+      <c r="G36">
+        <v>-105628000</v>
+      </c>
+      <c r="H36">
         <v>-1513520000</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>-618627000</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>-767915000</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>581475000</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>-1957932000</v>
       </c>
     </row>
@@ -4780,10 +5944,10 @@
       <c r="A38" t="str">
         <v xml:space="preserve">    Temettü Ödemeleri</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>0</v>
       </c>
     </row>
@@ -4791,10 +5955,10 @@
       <c r="A39" t="str">
         <v xml:space="preserve">    Kiralamaya İlişkin Ödemeler</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="I39">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>-1766000</v>
       </c>
     </row>
@@ -4802,10 +5966,10 @@
       <c r="A40" t="str">
         <v xml:space="preserve">    Diğer</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>0</v>
       </c>
     </row>
@@ -4814,27 +5978,36 @@
         <v xml:space="preserve">    FİNANSMAN FAALİYETLERİNDEN SAĞLANAN NET NAKİT</v>
       </c>
       <c r="B41">
+        <v>693010000</v>
+      </c>
+      <c r="C41">
+        <v>402867000</v>
+      </c>
+      <c r="D41">
         <v>640415000</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>105628000</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>-105628000</v>
       </c>
-      <c r="E41">
+      <c r="G41">
+        <v>-105628000</v>
+      </c>
+      <c r="H41">
         <v>611665000</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>-163639000</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>684285000</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>-186440000</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>-8560000</v>
       </c>
     </row>
@@ -4843,27 +6016,36 @@
         <v xml:space="preserve">    Yabancı Para Çevrim Farklarının Nakit ve Nakde Eşdeğer Varlıklar Üzerindeki Etkisi</v>
       </c>
       <c r="B42">
+        <v>3697000</v>
+      </c>
+      <c r="C42">
+        <v>3910000</v>
+      </c>
+      <c r="D42">
         <v>1093000</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>2433000</v>
       </c>
-      <c r="D42">
+      <c r="F42">
+        <v>2751000</v>
+      </c>
+      <c r="G42">
         <v>1768000</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>30371000</v>
       </c>
-      <c r="F42">
+      <c r="I42">
         <v>11201000</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>8608000</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>23655000</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>14140000</v>
       </c>
     </row>
@@ -4872,27 +6054,36 @@
         <v xml:space="preserve">    NAKİT VE NAKDE EŞDEĞER VARLIKLARDAKİ NET ARTIŞ (AZALIŞ)</v>
       </c>
       <c r="B43">
+        <v>-208984000</v>
+      </c>
+      <c r="C43">
+        <v>-109276000</v>
+      </c>
+      <c r="D43">
         <v>77657000</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>-202540000</v>
       </c>
-      <c r="D43">
+      <c r="F43">
+        <v>281362000</v>
+      </c>
+      <c r="G43">
         <v>233308000</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>334109000</v>
       </c>
-      <c r="F43">
+      <c r="I43">
         <v>1614603000</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>79610000</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>100135000</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>16140000</v>
       </c>
     </row>
@@ -4908,19 +6099,19 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L45"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="40"/>
+    <col min="1" max="1" customWidth="1" width="40" level="2" outlineLevel="2"/>
     <col min="2" max="2" customWidth="1" width="20"/>
     <col min="3" max="3" customWidth="1" width="20"/>
     <col min="4" max="4" customWidth="1" width="20"/>
@@ -4929,6 +6120,9 @@
     <col min="7" max="7" customWidth="1" width="20"/>
     <col min="8" max="8" customWidth="1" width="20"/>
     <col min="9" max="9" customWidth="1" width="20"/>
+    <col min="10" max="10" customWidth="1" width="20"/>
+    <col min="11" max="11" customWidth="1" width="20"/>
+    <col min="12" max="12" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4936,27 +6130,36 @@
         <v>Kalem</v>
       </c>
       <c r="B1" t="str">
+        <v>2025/12</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2025/9</v>
+      </c>
+      <c r="D1" t="str">
         <v>2025/6</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>2024/12</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
+        <v>2024/9</v>
+      </c>
+      <c r="G1" t="str">
         <v>2024/6</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>2023/12</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>2023/6</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>2022/12</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>2022/6</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>2021/12</v>
       </c>
     </row>
@@ -4969,16 +6172,52 @@
       <c r="A3" t="str">
         <v xml:space="preserve">    ESAS FAALİYET KONUSU VARLIK VE YÜKÜMLÜLÜKLERDEKİ DEĞİŞİM ÖNCESİ FAALİYET KARI (ZARARI)</v>
       </c>
+      <c r="B3">
+        <v>1559175000</v>
+      </c>
+      <c r="C3">
+        <v>130973000</v>
+      </c>
+      <c r="E3">
+        <v>-348176000</v>
+      </c>
+      <c r="F3">
+        <v>-740083000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v xml:space="preserve">    Alınan Faizler/ Alınan Kâr Payları / Kiralama Gelirleri</v>
       </c>
+      <c r="B4">
+        <v>2801698000</v>
+      </c>
+      <c r="C4">
+        <v>2141862000</v>
+      </c>
+      <c r="E4">
+        <v>2817744000</v>
+      </c>
+      <c r="F4">
+        <v>3341672000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v xml:space="preserve">    Ödenen Faizler / Ödenen Kâr Payları / Kiralama Giderleri</v>
       </c>
+      <c r="B5">
+        <v>-935851000</v>
+      </c>
+      <c r="C5">
+        <v>-1729835000</v>
+      </c>
+      <c r="E5">
+        <v>-2942080000</v>
+      </c>
+      <c r="F5">
+        <v>-3803067000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4989,36 +6228,120 @@
       <c r="A7" t="str">
         <v xml:space="preserve">    Alınan Ücret ve Komisyonlar</v>
       </c>
+      <c r="B7">
+        <v>1913000</v>
+      </c>
+      <c r="C7">
+        <v>2842000</v>
+      </c>
+      <c r="E7">
+        <v>3838000</v>
+      </c>
+      <c r="F7">
+        <v>6703000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v xml:space="preserve">    Zarar Olarak Muhasebeleştirilen Takipteki Alacaklardan Tahsilatlar</v>
       </c>
+      <c r="B8">
+        <v>95000</v>
+      </c>
+      <c r="C8">
+        <v>136000</v>
+      </c>
+      <c r="E8">
+        <v>316000</v>
+      </c>
+      <c r="F8">
+        <v>483000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v xml:space="preserve">    Personele ve Hizmet Tedarik Edenlere Yapılan Nakit Ödemeler</v>
       </c>
+      <c r="B9">
+        <v>-49834000</v>
+      </c>
+      <c r="C9">
+        <v>-49136000</v>
+      </c>
+      <c r="E9">
+        <v>-35876000</v>
+      </c>
+      <c r="F9">
+        <v>-35386000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v xml:space="preserve">    Ödenen Vergiler</v>
       </c>
+      <c r="B10">
+        <v>-218252000</v>
+      </c>
+      <c r="C10">
+        <v>-207433000</v>
+      </c>
+      <c r="E10">
+        <v>-166680000</v>
+      </c>
+      <c r="F10">
+        <v>-229857000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v xml:space="preserve">    Diğer</v>
       </c>
+      <c r="B11">
+        <v>-40594000</v>
+      </c>
+      <c r="C11">
+        <v>-27463000</v>
+      </c>
+      <c r="E11">
+        <v>-25438000</v>
+      </c>
+      <c r="F11">
+        <v>-20631000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v xml:space="preserve">    ESAS FAALİYET KONUSU VARLIK VE YÜKÜMLÜLÜKLERDEKİ DEĞİŞİM</v>
       </c>
+      <c r="B12">
+        <v>-1984981000</v>
+      </c>
+      <c r="C12">
+        <v>-101943000</v>
+      </c>
+      <c r="E12">
+        <v>-357911000</v>
+      </c>
+      <c r="F12">
+        <v>789953000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v xml:space="preserve">    Faktoring Alacaklarındaki Net (Artış) Azalış</v>
       </c>
+      <c r="B13">
+        <v>-12378221000</v>
+      </c>
+      <c r="C13">
+        <v>2248712000</v>
+      </c>
+      <c r="E13">
+        <v>-5696093000</v>
+      </c>
+      <c r="F13">
+        <v>12225569000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -5039,11 +6362,35 @@
       <c r="A17" t="str">
         <v xml:space="preserve">    Diğer Varlıklarda Net (Artış) Azalış</v>
       </c>
+      <c r="B17">
+        <v>-1384000</v>
+      </c>
+      <c r="C17">
+        <v>8682000</v>
+      </c>
+      <c r="E17">
+        <v>-15258000</v>
+      </c>
+      <c r="F17">
+        <v>55777000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v xml:space="preserve">    Faktoring Borçlarındaki Net Artış (Azalış)</v>
       </c>
+      <c r="B18">
+        <v>-5954000</v>
+      </c>
+      <c r="C18">
+        <v>5955000</v>
+      </c>
+      <c r="E18">
+        <v>376000</v>
+      </c>
+      <c r="F18">
+        <v>-2142000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5054,11 +6401,35 @@
       <c r="A20" t="str">
         <v xml:space="preserve">    Kiralama İşlemlerinden Borçlarda Net Artış (Azalış)</v>
       </c>
+      <c r="B20">
+        <v>-3160000</v>
+      </c>
+      <c r="C20">
+        <v>-1671000</v>
+      </c>
+      <c r="E20">
+        <v>-165000</v>
+      </c>
+      <c r="F20">
+        <v>916000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <v xml:space="preserve">    Alınan Kredilerdeki Net Artış (Azalış)</v>
       </c>
+      <c r="B21">
+        <v>10384114000</v>
+      </c>
+      <c r="C21">
+        <v>-2385042000</v>
+      </c>
+      <c r="E21">
+        <v>5389481000</v>
+      </c>
+      <c r="F21">
+        <v>-11532619000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5069,11 +6440,35 @@
       <c r="A23" t="str">
         <v xml:space="preserve">    Diğer Borçlarda Net Artış (Azalış)</v>
       </c>
+      <c r="B23">
+        <v>19624000</v>
+      </c>
+      <c r="C23">
+        <v>21421000</v>
+      </c>
+      <c r="E23">
+        <v>-36252000</v>
+      </c>
+      <c r="F23">
+        <v>42452000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
         <v xml:space="preserve">    ESAS FAALİYETLERİNDEN KAYNAKLANAN NET NAKİT AKIŞI</v>
       </c>
+      <c r="B24">
+        <v>-425806000</v>
+      </c>
+      <c r="C24">
+        <v>29030000</v>
+      </c>
+      <c r="E24">
+        <v>-706087000</v>
+      </c>
+      <c r="F24">
+        <v>49870000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -5089,11 +6484,29 @@
       <c r="A27" t="str">
         <v xml:space="preserve">    Satın Alınan Menkuller ve Gayrimenkuller</v>
       </c>
+      <c r="B27">
+        <v>-644000</v>
+      </c>
+      <c r="C27">
+        <v>-1232000</v>
+      </c>
+      <c r="E27">
+        <v>11247000</v>
+      </c>
+      <c r="F27">
+        <v>-2799000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
         <v xml:space="preserve">    Elden Çıkarılan Menkul ve Gayrimenkuller</v>
       </c>
+      <c r="B28">
+        <v>9000</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -5124,6 +6537,18 @@
       <c r="A34" t="str">
         <v xml:space="preserve">    YATIRIM FAALİYETLERİNDEN KAYNAKLANAN NET NAKİT AKIŞLARI</v>
       </c>
+      <c r="B34">
+        <v>36168000</v>
+      </c>
+      <c r="C34">
+        <v>18768000</v>
+      </c>
+      <c r="E34">
+        <v>11247000</v>
+      </c>
+      <c r="F34">
+        <v>-2799000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -5134,6 +6559,15 @@
       <c r="A36" t="str">
         <v xml:space="preserve">    Krediler ve İhraç Edilen Menkul Değerlerden Kaynaklanan Nakit Çıkışı</v>
       </c>
+      <c r="B36">
+        <v>-402867000</v>
+      </c>
+      <c r="E36">
+        <v>105628000</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -5159,16 +6593,52 @@
       <c r="A41" t="str">
         <v xml:space="preserve">    FİNANSMAN FAALİYETLERİNDEN SAĞLANAN NET NAKİT</v>
       </c>
+      <c r="B41">
+        <v>290143000</v>
+      </c>
+      <c r="C41">
+        <v>-237548000</v>
+      </c>
+      <c r="E41">
+        <v>211256000</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
         <v xml:space="preserve">    Yabancı Para Çevrim Farklarının Nakit ve Nakde Eşdeğer Varlıklar Üzerindeki Etkisi</v>
       </c>
+      <c r="B42">
+        <v>-213000</v>
+      </c>
+      <c r="C42">
+        <v>2817000</v>
+      </c>
+      <c r="E42">
+        <v>-318000</v>
+      </c>
+      <c r="F42">
+        <v>983000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
         <v xml:space="preserve">    NAKİT VE NAKDE EŞDEĞER VARLIKLARDAKİ NET ARTIŞ (AZALIŞ)</v>
       </c>
+      <c r="B43">
+        <v>-99708000</v>
+      </c>
+      <c r="C43">
+        <v>-186933000</v>
+      </c>
+      <c r="E43">
+        <v>-483902000</v>
+      </c>
+      <c r="F43">
+        <v>48054000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -5182,19 +6652,19 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L45"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="40"/>
+    <col min="1" max="1" customWidth="1" width="40" level="2" outlineLevel="2"/>
     <col min="2" max="2" customWidth="1" width="20"/>
     <col min="3" max="3" customWidth="1" width="20"/>
     <col min="4" max="4" customWidth="1" width="20"/>
@@ -5203,6 +6673,9 @@
     <col min="7" max="7" customWidth="1" width="20"/>
     <col min="8" max="8" customWidth="1" width="20"/>
     <col min="9" max="9" customWidth="1" width="20"/>
+    <col min="10" max="10" customWidth="1" width="20"/>
+    <col min="11" max="11" customWidth="1" width="20"/>
+    <col min="12" max="12" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5210,27 +6683,36 @@
         <v>Kalem</v>
       </c>
       <c r="B1" t="str">
+        <v>2025/12</v>
+      </c>
+      <c r="C1" t="str">
+        <v>2025/9</v>
+      </c>
+      <c r="D1" t="str">
         <v>2025/6</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>2024/12</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
+        <v>2024/9</v>
+      </c>
+      <c r="G1" t="str">
         <v>2024/6</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>2023/12</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>2023/6</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>2022/12</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>2022/6</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>2021/12</v>
       </c>
     </row>
@@ -5244,24 +6726,30 @@
         <v xml:space="preserve">    ESAS FAALİYET KONUSU VARLIK VE YÜKÜMLÜLÜKLERDEKİ DEĞİŞİM ÖNCESİ FAALİYET KARI (ZARARI)</v>
       </c>
       <c r="B3">
+        <v>2180215000</v>
+      </c>
+      <c r="C3">
+        <v>272864000</v>
+      </c>
+      <c r="D3">
         <v>-598192000</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1115003000</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>3138896000</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1881309000</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1321653000</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>263233000</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>187010000</v>
       </c>
     </row>
@@ -5270,24 +6758,30 @@
         <v xml:space="preserve">    Alınan Faizler/ Alınan Kâr Payları / Kiralama Gelirleri</v>
       </c>
       <c r="B4">
+        <v>9565696000</v>
+      </c>
+      <c r="C4">
+        <v>9581742000</v>
+      </c>
+      <c r="D4">
         <v>10781552000</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>12952560000</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>10880283000</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>6814870000</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>4235833000</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>2226469000</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>570734000</v>
       </c>
     </row>
@@ -5296,24 +6790,30 @@
         <v xml:space="preserve">    Ödenen Faizler / Ödenen Kâr Payları / Kiralama Giderleri</v>
       </c>
       <c r="B5">
+        <v>-6282796000</v>
+      </c>
+      <c r="C5">
+        <v>-8289025000</v>
+      </c>
+      <c r="D5">
         <v>-10362257000</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>-10948614000</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>-7683973000</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>-5474956000</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>-3019892000</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-1588750000</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>-515777000</v>
       </c>
     </row>
@@ -5321,10 +6821,10 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Alınan Temettüler</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
     </row>
@@ -5333,24 +6833,30 @@
         <v xml:space="preserve">    Alınan Ücret ve Komisyonlar</v>
       </c>
       <c r="B7">
+        <v>10829000</v>
+      </c>
+      <c r="C7">
+        <v>12754000</v>
+      </c>
+      <c r="D7">
         <v>16615000</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>21825000</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>765048000</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>1164455000</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>428432000</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>21394000</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>2811000</v>
       </c>
     </row>
@@ -5359,24 +6865,30 @@
         <v xml:space="preserve">    Zarar Olarak Muhasebeleştirilen Takipteki Alacaklardan Tahsilatlar</v>
       </c>
       <c r="B8">
+        <v>444000</v>
+      </c>
+      <c r="C8">
+        <v>665000</v>
+      </c>
+      <c r="D8">
         <v>1012000</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>1264000</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>-6797000</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>-5619000</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>-9621000</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>-7088000</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>6641000</v>
       </c>
     </row>
@@ -5385,24 +6897,30 @@
         <v xml:space="preserve">    Personele ve Hizmet Tedarik Edenlere Yapılan Nakit Ödemeler</v>
       </c>
       <c r="B9">
+        <v>-195929000</v>
+      </c>
+      <c r="C9">
+        <v>-181971000</v>
+      </c>
+      <c r="D9">
         <v>-168221000</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>-137475000</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>-107266000</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>-68722000</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>-42299000</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>-31141000</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>-31036000</v>
       </c>
     </row>
@@ -5411,24 +6929,30 @@
         <v xml:space="preserve">    Ödenen Vergiler</v>
       </c>
       <c r="B10">
+        <v>-814443000</v>
+      </c>
+      <c r="C10">
+        <v>-762871000</v>
+      </c>
+      <c r="D10">
         <v>-785295000</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>-722637000</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>-705857000</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>-539203000</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>-212616000</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>-116124000</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>-33110000</v>
       </c>
     </row>
@@ -5437,24 +6961,30 @@
         <v xml:space="preserve">    Diğer</v>
       </c>
       <c r="B11">
+        <v>-103586000</v>
+      </c>
+      <c r="C11">
+        <v>-88430000</v>
+      </c>
+      <c r="D11">
         <v>-81598000</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>-51920000</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>-2542000</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>-9516000</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>-58184000</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>-241527000</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>179882000</v>
       </c>
     </row>
@@ -5463,24 +6993,30 @@
         <v xml:space="preserve">    ESAS FAALİYET KONUSU VARLIK VE YÜKÜMLÜLÜKLERDEKİ DEĞİŞİM</v>
       </c>
       <c r="B12">
+        <v>-3138957000</v>
+      </c>
+      <c r="C12">
+        <v>-1511887000</v>
+      </c>
+      <c r="D12">
         <v>-619991000</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>-1420185000</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>-4855789000</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>-2181983000</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>-426891000</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>-872395000</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>-172940000</v>
       </c>
     </row>
@@ -5489,24 +7025,30 @@
         <v xml:space="preserve">    Faktoring Alacaklarındaki Net (Artış) Azalış</v>
       </c>
       <c r="B13">
+        <v>-9201164000</v>
+      </c>
+      <c r="C13">
+        <v>-2519036000</v>
+      </c>
+      <c r="D13">
         <v>7457821000</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>5197100000</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>-12956253000</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>-14097533000</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>-15768368000</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>-15425263000</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>-1096481000</v>
       </c>
     </row>
@@ -5514,10 +7056,10 @@
       <c r="A14" t="str">
         <v xml:space="preserve">    Finansman Kredilerindeki Net (Artış) Azalış</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
@@ -5525,10 +7067,10 @@
       <c r="A15" t="str">
         <v xml:space="preserve">    Kiralama İşlemlerinden Alacaklarda Net (Artış) Azalış</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
     </row>
@@ -5536,10 +7078,10 @@
       <c r="A16" t="str">
         <v xml:space="preserve">    Tasarruf Finansman Alacaklarındaki Net (Artış) Azalış</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>0</v>
       </c>
     </row>
@@ -5548,24 +7090,30 @@
         <v xml:space="preserve">    Diğer Varlıklarda Net (Artış) Azalış</v>
       </c>
       <c r="B17">
+        <v>5973000</v>
+      </c>
+      <c r="C17">
+        <v>-7901000</v>
+      </c>
+      <c r="D17">
         <v>39194000</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>89016000</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>271287000</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>-12339000</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>-386029000</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>-138698000</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>-58717000</v>
       </c>
     </row>
@@ -5574,24 +7122,30 @@
         <v xml:space="preserve">    Faktoring Borçlarındaki Net Artış (Azalış)</v>
       </c>
       <c r="B18">
+        <v>-365000</v>
+      </c>
+      <c r="C18">
+        <v>5965000</v>
+      </c>
+      <c r="D18">
         <v>-2132000</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>286000</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>187000</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>-5378000</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>1470000</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>-1841000</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>6637000</v>
       </c>
     </row>
@@ -5599,10 +7153,10 @@
       <c r="A19" t="str">
         <v xml:space="preserve">    Tasarruf Fon Havuzundaki Net Artış (Azalış)</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>0</v>
       </c>
     </row>
@@ -5611,24 +7165,30 @@
         <v xml:space="preserve">    Kiralama İşlemlerinden Borçlarda Net Artış (Azalış)</v>
       </c>
       <c r="B20">
+        <v>-7712000</v>
+      </c>
+      <c r="C20">
+        <v>-4717000</v>
+      </c>
+      <c r="D20">
         <v>-2130000</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>11497000</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>16704000</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>5607000</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>-1020000</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>-1471000</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>242000</v>
       </c>
     </row>
@@ -5637,24 +7197,30 @@
         <v xml:space="preserve">    Alınan Kredilerdeki Net Artış (Azalış)</v>
       </c>
       <c r="B21">
+        <v>6052733000</v>
+      </c>
+      <c r="C21">
+        <v>1058100000</v>
+      </c>
+      <c r="D21">
         <v>-8089477000</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>-6699356000</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>8407963000</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>11909592000</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>15023686000</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>14632789000</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>899872000</v>
       </c>
     </row>
@@ -5662,10 +7228,10 @@
       <c r="A22" t="str">
         <v xml:space="preserve">    Vadesi Gelmiş Borçlarda Net Artış (Azalış)</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>0</v>
       </c>
     </row>
@@ -5674,24 +7240,30 @@
         <v xml:space="preserve">    Diğer Borçlarda Net Artış (Azalış)</v>
       </c>
       <c r="B23">
+        <v>11578000</v>
+      </c>
+      <c r="C23">
+        <v>-44298000</v>
+      </c>
+      <c r="D23">
         <v>-23267000</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>-18728000</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>-595677000</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>18068000</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>703370000</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>62089000</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>75507000</v>
       </c>
     </row>
@@ -5700,24 +7272,30 @@
         <v xml:space="preserve">    ESAS FAALİYETLERİNDEN KAYNAKLANAN NET NAKİT AKIŞI</v>
       </c>
       <c r="B24">
+        <v>-958742000</v>
+      </c>
+      <c r="C24">
+        <v>-1239023000</v>
+      </c>
+      <c r="D24">
         <v>-1218183000</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>-305182000</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>-1716893000</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>-300674000</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>894762000</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>-609162000</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>14070000</v>
       </c>
     </row>
@@ -5725,10 +7303,10 @@
       <c r="A25" t="str">
         <v xml:space="preserve">    İktisap Edilen İştirakler, Bağlı Ortaklıklar ve Birlikte Kontrol Edilen Ortaklıklar (İş Ortaklıkları)</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>
@@ -5742,24 +7320,30 @@
         <v xml:space="preserve">    Satın Alınan Menkuller ve Gayrimenkuller</v>
       </c>
       <c r="B27">
+        <v>-3991000</v>
+      </c>
+      <c r="C27">
+        <v>7900000</v>
+      </c>
+      <c r="D27">
         <v>6333000</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>-5419000</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>-21642000</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>-8079000</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>-3934000</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>-4121000</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>-1894000</v>
       </c>
     </row>
@@ -5767,16 +7351,19 @@
       <c r="A28" t="str">
         <v xml:space="preserve">    Elden Çıkarılan Menkul ve Gayrimenkuller</v>
       </c>
-      <c r="E28">
+      <c r="B28">
+        <v>239000</v>
+      </c>
+      <c r="H28">
         <v>826000</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>10000</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>120000</v>
       </c>
     </row>
@@ -5784,10 +7371,10 @@
       <c r="A29" t="str">
         <v xml:space="preserve">    Elde Edilen Gerçeğe Uygun Değer Farkı Diğer Kapsamlı Gelire Yansıtılan Finansal Varlıklar</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>0</v>
       </c>
     </row>
@@ -5800,10 +7387,10 @@
       <c r="A31" t="str">
         <v xml:space="preserve">    Satın Alınan İtfa Edilmiş Maliyeti ile Ölçülen Finansal Varlıklar</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>0</v>
       </c>
     </row>
@@ -5816,10 +7403,10 @@
       <c r="A33" t="str">
         <v xml:space="preserve">    Diğer</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>-1736000</v>
       </c>
     </row>
@@ -5828,24 +7415,30 @@
         <v xml:space="preserve">    YATIRIM FAALİYETLERİNDEN KAYNAKLANAN NET NAKİT AKIŞLARI</v>
       </c>
       <c r="B34">
+        <v>53051000</v>
+      </c>
+      <c r="C34">
+        <v>28130000</v>
+      </c>
+      <c r="D34">
         <v>6563000</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>-5419000</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>-20907000</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>-7253000</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>-3924000</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>-4121000</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>-3510000</v>
       </c>
     </row>
@@ -5858,22 +7451,28 @@
       <c r="A36" t="str">
         <v xml:space="preserve">    Krediler ve İhraç Edilen Menkul Değerlerden Kaynaklanan Nakit Çıkışı</v>
       </c>
+      <c r="B36">
+        <v>-640415000</v>
+      </c>
       <c r="C36">
-        <v>105628000</v>
-      </c>
-      <c r="D36">
+        <v>-131920000</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>-1000521000</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>-1513520000</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>-1968017000</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>-767915000</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>-1957932000</v>
       </c>
     </row>
@@ -5886,10 +7485,10 @@
       <c r="A38" t="str">
         <v xml:space="preserve">    Temettü Ödemeleri</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>0</v>
       </c>
     </row>
@@ -5897,10 +7496,10 @@
       <c r="A39" t="str">
         <v xml:space="preserve">    Kiralamaya İlişkin Ödemeler</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="I39">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>-1766000</v>
       </c>
     </row>
@@ -5908,10 +7507,10 @@
       <c r="A40" t="str">
         <v xml:space="preserve">    Diğer</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +7519,30 @@
         <v xml:space="preserve">    FİNANSMAN FAALİYETLERİNDEN SAĞLANAN NET NAKİT</v>
       </c>
       <c r="B41">
+        <v>693010000</v>
+      </c>
+      <c r="C41">
+        <v>614123000</v>
+      </c>
+      <c r="D41">
         <v>851671000</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>105628000</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>669676000</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>611665000</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>707086000</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>684285000</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>-8560000</v>
       </c>
     </row>
@@ -5946,24 +7551,30 @@
         <v xml:space="preserve">    Yabancı Para Çevrim Farklarının Nakit ve Nakde Eşdeğer Varlıklar Üzerindeki Etkisi</v>
       </c>
       <c r="B42">
+        <v>3697000</v>
+      </c>
+      <c r="C42">
+        <v>3592000</v>
+      </c>
+      <c r="D42">
         <v>1758000</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>2433000</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>20938000</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>30371000</v>
       </c>
-      <c r="F42">
+      <c r="I42">
         <v>-3846000</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>8608000</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>14140000</v>
       </c>
     </row>
@@ -5972,24 +7583,30 @@
         <v xml:space="preserve">    NAKİT VE NAKDE EŞDEĞER VARLIKLARDAKİ NET ARTIŞ (AZALIŞ)</v>
       </c>
       <c r="B43">
+        <v>-208984000</v>
+      </c>
+      <c r="C43">
+        <v>-593178000</v>
+      </c>
+      <c r="D43">
         <v>-358191000</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>-202540000</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <v>-1047186000</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>334109000</v>
       </c>
-      <c r="F43">
+      <c r="I43">
         <v>1594078000</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>79610000</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>16140000</v>
       </c>
     </row>
@@ -6005,7 +7622,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L45"/>
   </ignoredErrors>
 </worksheet>
 </file>